--- a/SceneServer/tools/Xlsx/kx_skill.xlsx
+++ b/SceneServer/tools/Xlsx/kx_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27885" windowHeight="14085"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -28,21 +28,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Minghua Zhang(Porton):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：buff技能</t>
+          <t>0：buff技能</t>
         </r>
       </text>
     </comment>
@@ -2236,12 +2226,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3026,9 +3016,9 @@
   <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>

--- a/SceneServer/tools/Xlsx/kx_skill.xlsx
+++ b/SceneServer/tools/Xlsx/kx_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0：buff技能</t>
+          <t>0：buff技能
+1：物理技能
+2：魔法技能</t>
         </r>
       </text>
     </comment>
@@ -40,21 +42,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-3:低等技能
+          <t>3:低等技能
 4:高级技能
 5:一觉技能
 6:二觉技能</t>
@@ -2073,7 +2065,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2226,12 +2218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3016,9 +3002,9 @@
   <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -3270,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:25">
+    <row r="5" customHeight="1" spans="1:25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3332,7 +3318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:25">
+    <row r="6" customHeight="1" spans="1:25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3397,7 +3383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:25">
+    <row r="7" customHeight="1" spans="1:25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3462,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:25">
+    <row r="8" customHeight="1" spans="1:25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3527,7 +3513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:25">
+    <row r="9" customHeight="1" spans="1:25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3592,7 +3578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:25">
+    <row r="10" customHeight="1" spans="1:25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3657,7 +3643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:25">
+    <row r="11" customHeight="1" spans="1:25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3722,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:25">
+    <row r="12" customHeight="1" spans="1:25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3787,7 +3773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:25">
+    <row r="13" customHeight="1" spans="1:25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3852,7 +3838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:25">
+    <row r="14" customHeight="1" spans="1:25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3917,7 +3903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:25">
+    <row r="15" customHeight="1" spans="1:25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -7581,7 +7567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:25">
+    <row r="71" customHeight="1" spans="1:25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7643,7 +7629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:25">
+    <row r="72" customHeight="1" spans="1:25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7708,7 +7694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:25">
+    <row r="73" customHeight="1" spans="1:25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7773,7 +7759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:25">
+    <row r="74" customHeight="1" spans="1:25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -7838,7 +7824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:25">
+    <row r="75" customHeight="1" spans="1:25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -7903,7 +7889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:25">
+    <row r="76" customHeight="1" spans="1:25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -7968,7 +7954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:25">
+    <row r="77" customHeight="1" spans="1:25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8033,7 +8019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:25">
+    <row r="78" customHeight="1" spans="1:25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8098,7 +8084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:25">
+    <row r="79" customHeight="1" spans="1:25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8163,7 +8149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:25">
+    <row r="80" customHeight="1" spans="1:25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8228,7 +8214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:25">
+    <row r="81" customHeight="1" spans="1:25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8293,7 +8279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:25">
+    <row r="82" customHeight="1" spans="1:25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8358,7 +8344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:25">
+    <row r="83" customHeight="1" spans="1:25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8423,7 +8409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:25">
+    <row r="84" customHeight="1" spans="1:25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8488,7 +8474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:25">
+    <row r="85" customHeight="1" spans="1:25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8553,7 +8539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:25">
+    <row r="86" customHeight="1" spans="1:25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8618,7 +8604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:25">
+    <row r="87" customHeight="1" spans="1:25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8680,7 +8666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:25">
+    <row r="88" customHeight="1" spans="1:25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8745,7 +8731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:25">
+    <row r="89" customHeight="1" spans="1:25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8810,7 +8796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:25">
+    <row r="90" customHeight="1" spans="1:25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8875,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:25">
+    <row r="91" customHeight="1" spans="1:25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8940,7 +8926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:25">
+    <row r="92" customHeight="1" spans="1:25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9005,7 +8991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:25">
+    <row r="93" customHeight="1" spans="1:25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9070,7 +9056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:25">
+    <row r="94" customHeight="1" spans="1:25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9135,7 +9121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:25">
+    <row r="95" customHeight="1" spans="1:25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -9200,7 +9186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:25">
+    <row r="96" customHeight="1" spans="1:25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -9265,7 +9251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:25">
+    <row r="97" customHeight="1" spans="1:25">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -11109,7 +11095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:25">
+    <row r="125" customHeight="1" spans="1:25">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -11168,7 +11154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:25">
+    <row r="126" customHeight="1" spans="1:25">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -11348,7 +11334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:25">
+    <row r="129" customHeight="1" spans="1:25">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -11799,7 +11785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:25">
+    <row r="137" hidden="1" customHeight="1" spans="1:25">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -11911,7 +11897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:25">
+    <row r="139" hidden="1" customHeight="1" spans="1:25">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -12303,7 +12289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:25">
+    <row r="146" customHeight="1" spans="1:25">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -12415,7 +12401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:25">
+    <row r="148" customHeight="1" spans="1:25">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -12471,7 +12457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:25">
+    <row r="149" customHeight="1" spans="1:25">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -12527,7 +12513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:25">
+    <row r="150" customHeight="1" spans="1:25">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -12583,7 +12569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:25">
+    <row r="151" customHeight="1" spans="1:25">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -12695,7 +12681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:25">
+    <row r="153" hidden="1" customHeight="1" spans="1:25">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -12751,7 +12737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:25">
+    <row r="154" hidden="1" customHeight="1" spans="1:25">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -12975,7 +12961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:25">
+    <row r="158" customHeight="1" spans="1:25">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -13087,7 +13073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:25">
+    <row r="160" customHeight="1" spans="1:25">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -13311,7 +13297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:25">
+    <row r="164" customHeight="1" spans="1:25">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -13606,7 +13592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:25">
+    <row r="169" hidden="1" customHeight="1" spans="1:25">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -13845,7 +13831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" hidden="1" customHeight="1" spans="1:25">
+    <row r="173" customHeight="1" spans="1:25">
       <c r="A173" s="1">
         <v>169</v>
       </c>
@@ -13901,7 +13887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" hidden="1" customHeight="1" spans="1:25">
+    <row r="174" customHeight="1" spans="1:25">
       <c r="A174" s="1">
         <v>170</v>
       </c>
@@ -14128,7 +14114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" hidden="1" customHeight="1" spans="1:25">
+    <row r="178" customHeight="1" spans="1:25">
       <c r="A178" s="1">
         <v>174</v>
       </c>
@@ -14638,7 +14624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" hidden="1" customHeight="1" spans="1:25">
+    <row r="187" customHeight="1" spans="1:25">
       <c r="A187" s="1">
         <v>183</v>
       </c>
@@ -14691,7 +14677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" hidden="1" customHeight="1" spans="1:25">
+    <row r="188" customHeight="1" spans="1:25">
       <c r="A188" s="1">
         <v>184</v>
       </c>
@@ -15098,7 +15084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" hidden="1" customHeight="1" spans="1:25">
+    <row r="195" customHeight="1" spans="1:25">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -15265,11 +15251,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:Y197">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="Bare1"/>
-        <customFilter operator="equal" val="Bare"/>
-      </customFilters>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/SceneServer/tools/Xlsx/kx_skill.xlsx
+++ b/SceneServer/tools/Xlsx/kx_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16425"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -3002,9 +3002,9 @@
   <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="Q190" sqref="Q190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -3256,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:25">
+    <row r="5" hidden="1" customHeight="1" spans="1:25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:25">
+    <row r="6" hidden="1" customHeight="1" spans="1:25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:25">
+    <row r="7" hidden="1" customHeight="1" spans="1:25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:25">
+    <row r="8" hidden="1" customHeight="1" spans="1:25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:25">
+    <row r="9" hidden="1" customHeight="1" spans="1:25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:25">
+    <row r="10" hidden="1" customHeight="1" spans="1:25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:25">
+    <row r="11" hidden="1" customHeight="1" spans="1:25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:25">
+    <row r="12" hidden="1" customHeight="1" spans="1:25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:25">
+    <row r="13" hidden="1" customHeight="1" spans="1:25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:25">
+    <row r="14" hidden="1" customHeight="1" spans="1:25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:25">
+    <row r="15" hidden="1" customHeight="1" spans="1:25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:25">
+    <row r="30" customHeight="1" spans="1:25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:25">
+    <row r="31" customHeight="1" spans="1:25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:25">
+    <row r="32" customHeight="1" spans="1:25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:25">
+    <row r="33" customHeight="1" spans="1:25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5143,6 +5143,9 @@
       <c r="O33" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="Q33" s="1">
+        <v>15</v>
+      </c>
       <c r="S33" s="1" t="s">
         <v>145</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:25">
+    <row r="34" customHeight="1" spans="1:25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5211,6 +5214,9 @@
       <c r="O34" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="Q34" s="1">
+        <v>15</v>
+      </c>
       <c r="S34" s="1" t="s">
         <v>150</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:25">
+    <row r="35" hidden="1" customHeight="1" spans="1:25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:25">
+    <row r="36" hidden="1" customHeight="1" spans="1:25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5360,7 +5366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:25">
+    <row r="37" hidden="1" customHeight="1" spans="1:25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:25">
+    <row r="38" hidden="1" customHeight="1" spans="1:25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:25">
+    <row r="39" hidden="1" customHeight="1" spans="1:25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5555,7 +5561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:25">
+    <row r="40" hidden="1" customHeight="1" spans="1:25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:25">
+    <row r="41" hidden="1" customHeight="1" spans="1:25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:25">
+    <row r="42" hidden="1" customHeight="1" spans="1:25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:25">
+    <row r="43" hidden="1" customHeight="1" spans="1:25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:25">
+    <row r="44" hidden="1" customHeight="1" spans="1:25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:25">
+    <row r="45" hidden="1" customHeight="1" spans="1:25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:25">
+    <row r="46" hidden="1" customHeight="1" spans="1:25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:25">
+    <row r="47" hidden="1" customHeight="1" spans="1:25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:25">
+    <row r="48" hidden="1" customHeight="1" spans="1:25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:25">
+    <row r="49" hidden="1" customHeight="1" spans="1:25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:25">
+    <row r="50" hidden="1" customHeight="1" spans="1:25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:25">
+    <row r="51" hidden="1" customHeight="1" spans="1:25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:25">
+    <row r="52" hidden="1" customHeight="1" spans="1:25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:25">
+    <row r="53" hidden="1" customHeight="1" spans="1:25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:25">
+    <row r="54" hidden="1" customHeight="1" spans="1:25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:25">
+    <row r="55" hidden="1" customHeight="1" spans="1:25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:25">
+    <row r="56" hidden="1" customHeight="1" spans="1:25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:25">
+    <row r="57" hidden="1" customHeight="1" spans="1:25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:25">
+    <row r="58" hidden="1" customHeight="1" spans="1:25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:25">
+    <row r="59" hidden="1" customHeight="1" spans="1:25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:25">
+    <row r="60" hidden="1" customHeight="1" spans="1:25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:25">
+    <row r="61" hidden="1" customHeight="1" spans="1:25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:25">
+    <row r="62" hidden="1" customHeight="1" spans="1:25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:25">
+    <row r="63" hidden="1" customHeight="1" spans="1:25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:25">
+    <row r="64" hidden="1" customHeight="1" spans="1:25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:25">
+    <row r="65" hidden="1" customHeight="1" spans="1:25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7242,7 +7248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:25">
+    <row r="66" hidden="1" customHeight="1" spans="1:25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7307,7 +7313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:25">
+    <row r="67" hidden="1" customHeight="1" spans="1:25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:25">
+    <row r="68" hidden="1" customHeight="1" spans="1:25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:25">
+    <row r="69" hidden="1" customHeight="1" spans="1:25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:25">
+    <row r="70" hidden="1" customHeight="1" spans="1:25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:25">
+    <row r="71" hidden="1" customHeight="1" spans="1:25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:25">
+    <row r="72" hidden="1" customHeight="1" spans="1:25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:25">
+    <row r="73" hidden="1" customHeight="1" spans="1:25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7759,7 +7765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:25">
+    <row r="74" hidden="1" customHeight="1" spans="1:25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:25">
+    <row r="75" hidden="1" customHeight="1" spans="1:25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:25">
+    <row r="76" hidden="1" customHeight="1" spans="1:25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:25">
+    <row r="77" hidden="1" customHeight="1" spans="1:25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:25">
+    <row r="78" hidden="1" customHeight="1" spans="1:25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:25">
+    <row r="79" hidden="1" customHeight="1" spans="1:25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:25">
+    <row r="80" hidden="1" customHeight="1" spans="1:25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8214,7 +8220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:25">
+    <row r="81" hidden="1" customHeight="1" spans="1:25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:25">
+    <row r="82" hidden="1" customHeight="1" spans="1:25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:25">
+    <row r="83" hidden="1" customHeight="1" spans="1:25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8409,7 +8415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:25">
+    <row r="84" hidden="1" customHeight="1" spans="1:25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:25">
+    <row r="85" hidden="1" customHeight="1" spans="1:25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8539,7 +8545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:25">
+    <row r="86" hidden="1" customHeight="1" spans="1:25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:25">
+    <row r="87" hidden="1" customHeight="1" spans="1:25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8666,7 +8672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:25">
+    <row r="88" hidden="1" customHeight="1" spans="1:25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8731,7 +8737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:25">
+    <row r="89" hidden="1" customHeight="1" spans="1:25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8796,7 +8802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:25">
+    <row r="90" hidden="1" customHeight="1" spans="1:25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:25">
+    <row r="91" hidden="1" customHeight="1" spans="1:25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:25">
+    <row r="92" hidden="1" customHeight="1" spans="1:25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:25">
+    <row r="93" hidden="1" customHeight="1" spans="1:25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:25">
+    <row r="94" hidden="1" customHeight="1" spans="1:25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9121,7 +9127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:25">
+    <row r="95" hidden="1" customHeight="1" spans="1:25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:25">
+    <row r="96" hidden="1" customHeight="1" spans="1:25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:25">
+    <row r="97" hidden="1" customHeight="1" spans="1:25">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:25">
+    <row r="98" customHeight="1" spans="1:25">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -9362,6 +9368,9 @@
       <c r="O98" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="Q98" s="1">
+        <v>15</v>
+      </c>
       <c r="T98" s="1">
         <v>0</v>
       </c>
@@ -9378,7 +9387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:25">
+    <row r="99" customHeight="1" spans="1:25">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -9424,6 +9433,9 @@
       <c r="O99" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="Q99" s="1">
+        <v>15</v>
+      </c>
       <c r="S99" s="1" t="s">
         <v>347</v>
       </c>
@@ -9443,7 +9455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:25">
+    <row r="100" customHeight="1" spans="1:25">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -9489,6 +9501,9 @@
       <c r="O100" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="Q100" s="1">
+        <v>15</v>
+      </c>
       <c r="S100" s="1" t="s">
         <v>351</v>
       </c>
@@ -9508,7 +9523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:25">
+    <row r="101" customHeight="1" spans="1:25">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -9554,6 +9569,9 @@
       <c r="O101" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="Q101" s="1">
+        <v>15</v>
+      </c>
       <c r="S101" s="1" t="s">
         <v>355</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:25">
+    <row r="102" customHeight="1" spans="1:25">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -9619,6 +9637,9 @@
       <c r="O102" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="Q102" s="1">
+        <v>15</v>
+      </c>
       <c r="S102" s="1" t="s">
         <v>359</v>
       </c>
@@ -9638,7 +9659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:25">
+    <row r="103" customHeight="1" spans="1:25">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -9684,6 +9705,9 @@
       <c r="O103" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="Q103" s="1">
+        <v>15</v>
+      </c>
       <c r="S103" s="1" t="s">
         <v>363</v>
       </c>
@@ -9703,7 +9727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:25">
+    <row r="104" customHeight="1" spans="1:25">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -9749,6 +9773,9 @@
       <c r="O104" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="Q104" s="1">
+        <v>15</v>
+      </c>
       <c r="S104" s="1" t="s">
         <v>367</v>
       </c>
@@ -9768,7 +9795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:25">
+    <row r="105" customHeight="1" spans="1:25">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -9814,6 +9841,9 @@
       <c r="O105" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="Q105" s="1">
+        <v>15</v>
+      </c>
       <c r="S105" s="1" t="s">
         <v>371</v>
       </c>
@@ -9833,7 +9863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:25">
+    <row r="106" customHeight="1" spans="1:25">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -9878,6 +9908,9 @@
       </c>
       <c r="O106" s="1" t="s">
         <v>372</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>15</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>375</v>
@@ -10093,7 +10126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" ht="14.25" hidden="1" spans="1:25">
+    <row r="110" hidden="1" spans="1:25">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -10743,7 +10776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:25">
+    <row r="120" customHeight="1" spans="1:25">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -10790,7 +10823,7 @@
         <v>416</v>
       </c>
       <c r="Q120" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R120" s="1">
         <v>0.03</v>
@@ -10814,7 +10847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:25">
+    <row r="121" customHeight="1" spans="1:25">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -10861,7 +10894,7 @@
         <v>421</v>
       </c>
       <c r="Q121" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R121" s="1">
         <v>0.03</v>
@@ -10885,7 +10918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:25">
+    <row r="122" customHeight="1" spans="1:25">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -10932,7 +10965,7 @@
         <v>425</v>
       </c>
       <c r="Q122" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R122" s="1">
         <v>0.42</v>
@@ -10956,7 +10989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:25">
+    <row r="123" customHeight="1" spans="1:25">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -11003,7 +11036,7 @@
         <v>428</v>
       </c>
       <c r="Q123" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R123" s="1">
         <v>0.42</v>
@@ -11027,7 +11060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:25">
+    <row r="124" customHeight="1" spans="1:25">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -11073,6 +11106,9 @@
       <c r="O124" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="Q124" s="1">
+        <v>15</v>
+      </c>
       <c r="S124" s="1" t="s">
         <v>433</v>
       </c>
@@ -11095,7 +11131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:25">
+    <row r="125" hidden="1" customHeight="1" spans="1:25">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -11154,7 +11190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:25">
+    <row r="126" hidden="1" customHeight="1" spans="1:25">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -11216,7 +11252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:25">
+    <row r="127" hidden="1" customHeight="1" spans="1:25">
       <c r="A127" s="1">
         <v>123</v>
       </c>
@@ -11275,7 +11311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:25">
+    <row r="128" hidden="1" customHeight="1" spans="1:25">
       <c r="A128" s="1">
         <v>124</v>
       </c>
@@ -11334,7 +11370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:25">
+    <row r="129" hidden="1" customHeight="1" spans="1:25">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -11505,7 +11541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:25">
+    <row r="132" customHeight="1" spans="1:25">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -11545,6 +11581,9 @@
       <c r="O132" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="Q132" s="1">
+        <v>15</v>
+      </c>
       <c r="T132" s="1">
         <v>0</v>
       </c>
@@ -11561,7 +11600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:25">
+    <row r="133" customHeight="1" spans="1:25">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -11601,6 +11640,9 @@
       <c r="O133" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="Q133" s="1">
+        <v>15</v>
+      </c>
       <c r="T133" s="1">
         <v>0</v>
       </c>
@@ -11617,7 +11659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:25">
+    <row r="134" customHeight="1" spans="1:25">
       <c r="A134" s="1">
         <v>130</v>
       </c>
@@ -11657,6 +11699,9 @@
       <c r="O134" s="1" t="s">
         <v>463</v>
       </c>
+      <c r="Q134" s="1">
+        <v>15</v>
+      </c>
       <c r="T134" s="1">
         <v>0</v>
       </c>
@@ -11673,7 +11718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:25">
+    <row r="135" customHeight="1" spans="1:25">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -11713,6 +11758,9 @@
       <c r="O135" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="Q135" s="1">
+        <v>15</v>
+      </c>
       <c r="T135" s="1">
         <v>0</v>
       </c>
@@ -11729,7 +11777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:25">
+    <row r="136" customHeight="1" spans="1:25">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -11769,6 +11817,9 @@
       <c r="O136" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="Q136" s="1">
+        <v>15</v>
+      </c>
       <c r="T136" s="1">
         <v>0</v>
       </c>
@@ -11785,7 +11836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:25">
+    <row r="137" customHeight="1" spans="1:25">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -11825,6 +11876,9 @@
       <c r="O137" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="Q137" s="1">
+        <v>15</v>
+      </c>
       <c r="T137" s="1">
         <v>0</v>
       </c>
@@ -11841,7 +11895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:25">
+    <row r="138" hidden="1" customHeight="1" spans="1:25">
       <c r="A138" s="1">
         <v>134</v>
       </c>
@@ -11897,7 +11951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:25">
+    <row r="139" customHeight="1" spans="1:25">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -11937,6 +11991,9 @@
       <c r="O139" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="Q139" s="1">
+        <v>15</v>
+      </c>
       <c r="T139" s="1">
         <v>0</v>
       </c>
@@ -11953,7 +12010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:25">
+    <row r="140" customHeight="1" spans="1:25">
       <c r="A140" s="1">
         <v>136</v>
       </c>
@@ -11992,6 +12049,9 @@
       </c>
       <c r="O140" s="1" t="s">
         <v>481</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>15</v>
       </c>
       <c r="T140" s="1">
         <v>0</v>
@@ -12121,7 +12181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:25">
+    <row r="143" customHeight="1" spans="1:25">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -12160,6 +12220,9 @@
       </c>
       <c r="O143" s="1" t="s">
         <v>491</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>15</v>
       </c>
       <c r="T143" s="1">
         <v>0</v>
@@ -12289,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:25">
+    <row r="146" hidden="1" customHeight="1" spans="1:25">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -12401,7 +12464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:25">
+    <row r="148" hidden="1" customHeight="1" spans="1:25">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -12457,7 +12520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:25">
+    <row r="149" hidden="1" customHeight="1" spans="1:25">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -12513,7 +12576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:25">
+    <row r="150" hidden="1" customHeight="1" spans="1:25">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -12569,7 +12632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:25">
+    <row r="151" hidden="1" customHeight="1" spans="1:25">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -12625,7 +12688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:25">
+    <row r="152" hidden="1" customHeight="1" spans="1:25">
       <c r="A152" s="1">
         <v>148</v>
       </c>
@@ -12681,7 +12744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:25">
+    <row r="153" customHeight="1" spans="1:25">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -12721,6 +12784,9 @@
       <c r="O153" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="Q153" s="1">
+        <v>15</v>
+      </c>
       <c r="T153" s="1">
         <v>0</v>
       </c>
@@ -12737,7 +12803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:25">
+    <row r="154" customHeight="1" spans="1:25">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -12776,6 +12842,9 @@
       </c>
       <c r="O154" s="1" t="s">
         <v>524</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>15</v>
       </c>
       <c r="T154" s="1">
         <v>0</v>
@@ -12961,7 +13030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:25">
+    <row r="158" hidden="1" customHeight="1" spans="1:25">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -13017,7 +13086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:25">
+    <row r="159" customHeight="1" spans="1:25">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -13057,6 +13126,9 @@
       <c r="O159" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="Q159" s="1">
+        <v>15</v>
+      </c>
       <c r="T159" s="1">
         <v>0</v>
       </c>
@@ -13073,7 +13145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:25">
+    <row r="160" hidden="1" customHeight="1" spans="1:25">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -13297,7 +13369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:25">
+    <row r="164" hidden="1" customHeight="1" spans="1:25">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -13362,7 +13434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:25">
+    <row r="165" customHeight="1" spans="1:25">
       <c r="A165" s="1">
         <v>161</v>
       </c>
@@ -13405,6 +13477,9 @@
       <c r="O165" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="Q165" s="1">
+        <v>15</v>
+      </c>
       <c r="T165" s="1">
         <v>0</v>
       </c>
@@ -13421,7 +13496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:25">
+    <row r="166" customHeight="1" spans="1:25">
       <c r="A166" s="1">
         <v>162</v>
       </c>
@@ -13464,6 +13539,9 @@
       <c r="O166" s="1" t="s">
         <v>561</v>
       </c>
+      <c r="Q166" s="1">
+        <v>15</v>
+      </c>
       <c r="T166" s="1">
         <v>0</v>
       </c>
@@ -13480,7 +13558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:25">
+    <row r="167" hidden="1" customHeight="1" spans="1:25">
       <c r="A167" s="1">
         <v>163</v>
       </c>
@@ -13536,7 +13614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:25">
+    <row r="168" hidden="1" customHeight="1" spans="1:25">
       <c r="A168" s="1">
         <v>164</v>
       </c>
@@ -13592,7 +13670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:25">
+    <row r="169" customHeight="1" spans="1:25">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -13631,6 +13709,9 @@
       </c>
       <c r="O169" s="1" t="s">
         <v>570</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>15</v>
       </c>
       <c r="T169" s="1">
         <v>0</v>
@@ -13707,7 +13788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" hidden="1" customHeight="1" spans="1:25">
+    <row r="171" customHeight="1" spans="1:25">
       <c r="A171" s="1">
         <v>167</v>
       </c>
@@ -13750,6 +13831,9 @@
       <c r="O171" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="Q171" s="1">
+        <v>15</v>
+      </c>
       <c r="T171" s="1">
         <v>0</v>
       </c>
@@ -13769,7 +13853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" hidden="1" customHeight="1" spans="1:25">
+    <row r="172" customHeight="1" spans="1:25">
       <c r="A172" s="1">
         <v>168</v>
       </c>
@@ -13812,6 +13896,9 @@
       <c r="O172" s="1" t="s">
         <v>581</v>
       </c>
+      <c r="Q172" s="1">
+        <v>15</v>
+      </c>
       <c r="T172" s="1">
         <v>0</v>
       </c>
@@ -13831,7 +13918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:25">
+    <row r="173" hidden="1" customHeight="1" spans="1:25">
       <c r="A173" s="1">
         <v>169</v>
       </c>
@@ -13887,7 +13974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:25">
+    <row r="174" hidden="1" customHeight="1" spans="1:25">
       <c r="A174" s="1">
         <v>170</v>
       </c>
@@ -13943,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" hidden="1" customHeight="1" spans="1:25">
+    <row r="175" customHeight="1" spans="1:25">
       <c r="A175" s="1">
         <v>171</v>
       </c>
@@ -13985,6 +14072,9 @@
       </c>
       <c r="O175" s="1" t="s">
         <v>591</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>15</v>
       </c>
       <c r="T175" s="1">
         <v>0</v>
@@ -14058,7 +14148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" hidden="1" customHeight="1" spans="1:25">
+    <row r="177" customHeight="1" spans="1:25">
       <c r="A177" s="1">
         <v>173</v>
       </c>
@@ -14098,6 +14188,9 @@
       <c r="O177" s="1" t="s">
         <v>597</v>
       </c>
+      <c r="Q177" s="1">
+        <v>15</v>
+      </c>
       <c r="T177" s="1">
         <v>0</v>
       </c>
@@ -14114,7 +14207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:25">
+    <row r="178" hidden="1" customHeight="1" spans="1:25">
       <c r="A178" s="1">
         <v>174</v>
       </c>
@@ -14229,7 +14322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" hidden="1" customHeight="1" spans="1:25">
+    <row r="180" customHeight="1" spans="1:25">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -14268,6 +14361,9 @@
       </c>
       <c r="O180" s="1" t="s">
         <v>606</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>15</v>
       </c>
       <c r="T180" s="1">
         <v>0</v>
@@ -14341,7 +14437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" hidden="1" customHeight="1" spans="1:25">
+    <row r="182" customHeight="1" spans="1:25">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -14381,6 +14477,9 @@
       <c r="O182" s="1" t="s">
         <v>612</v>
       </c>
+      <c r="Q182" s="1">
+        <v>15</v>
+      </c>
       <c r="T182" s="1">
         <v>0</v>
       </c>
@@ -14397,7 +14496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" hidden="1" customHeight="1" spans="1:25">
+    <row r="183" customHeight="1" spans="1:25">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -14437,6 +14536,9 @@
       <c r="O183" s="1" t="s">
         <v>616</v>
       </c>
+      <c r="Q183" s="1">
+        <v>15</v>
+      </c>
       <c r="T183" s="1">
         <v>0</v>
       </c>
@@ -14453,7 +14555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" hidden="1" customHeight="1" spans="1:25">
+    <row r="184" customHeight="1" spans="1:25">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -14496,6 +14598,9 @@
       <c r="O184" s="1" t="s">
         <v>620</v>
       </c>
+      <c r="Q184" s="1">
+        <v>15</v>
+      </c>
       <c r="T184" s="1">
         <v>0</v>
       </c>
@@ -14512,7 +14617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" hidden="1" customHeight="1" spans="1:25">
+    <row r="185" customHeight="1" spans="1:25">
       <c r="A185" s="1">
         <v>181</v>
       </c>
@@ -14552,6 +14657,9 @@
       <c r="O185" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="Q185" s="1">
+        <v>15</v>
+      </c>
       <c r="T185" s="1">
         <v>0</v>
       </c>
@@ -14568,7 +14676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" hidden="1" customHeight="1" spans="1:25">
+    <row r="186" customHeight="1" spans="1:25">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -14608,6 +14716,9 @@
       <c r="O186" s="1" t="s">
         <v>626</v>
       </c>
+      <c r="Q186" s="1">
+        <v>15</v>
+      </c>
       <c r="T186" s="1">
         <v>0</v>
       </c>
@@ -14624,7 +14735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:25">
+    <row r="187" hidden="1" customHeight="1" spans="1:25">
       <c r="A187" s="1">
         <v>183</v>
       </c>
@@ -14677,7 +14788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:25">
+    <row r="188" hidden="1" customHeight="1" spans="1:25">
       <c r="A188" s="1">
         <v>184</v>
       </c>
@@ -14733,7 +14844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" hidden="1" customHeight="1" spans="1:25">
+    <row r="189" customHeight="1" spans="1:25">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -14776,6 +14887,9 @@
       <c r="O189" s="1" t="s">
         <v>636</v>
       </c>
+      <c r="Q189" s="1">
+        <v>15</v>
+      </c>
       <c r="T189" s="1">
         <v>833</v>
       </c>
@@ -14795,7 +14909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" hidden="1" customHeight="1" spans="1:25">
+    <row r="190" customHeight="1" spans="1:25">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -14838,6 +14952,9 @@
       <c r="O190" s="1" t="s">
         <v>640</v>
       </c>
+      <c r="Q190" s="1">
+        <v>15</v>
+      </c>
       <c r="T190" s="1">
         <v>0</v>
       </c>
@@ -14857,7 +14974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" hidden="1" customHeight="1" spans="1:25">
+    <row r="191" customHeight="1" spans="1:25">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -14900,6 +15017,9 @@
       <c r="O191" s="1" t="s">
         <v>644</v>
       </c>
+      <c r="Q191" s="1">
+        <v>15</v>
+      </c>
       <c r="T191" s="1">
         <v>0</v>
       </c>
@@ -14919,7 +15039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" hidden="1" customHeight="1" spans="1:25">
+    <row r="192" customHeight="1" spans="1:25">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -14959,6 +15079,9 @@
       <c r="O192" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="Q192" s="1">
+        <v>15</v>
+      </c>
       <c r="T192" s="1">
         <v>0</v>
       </c>
@@ -14975,7 +15098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" hidden="1" customHeight="1" spans="1:25">
+    <row r="193" customHeight="1" spans="1:25">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -15015,6 +15138,9 @@
       <c r="O193" s="1" t="s">
         <v>650</v>
       </c>
+      <c r="Q193" s="1">
+        <v>15</v>
+      </c>
       <c r="T193" s="1">
         <v>0</v>
       </c>
@@ -15031,7 +15157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" hidden="1" customHeight="1" spans="1:25">
+    <row r="194" customHeight="1" spans="1:25">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -15068,6 +15194,9 @@
       <c r="O194" s="1" t="s">
         <v>652</v>
       </c>
+      <c r="Q194" s="1">
+        <v>15</v>
+      </c>
       <c r="T194" s="1">
         <v>0</v>
       </c>
@@ -15084,7 +15213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:25">
+    <row r="195" hidden="1" customHeight="1" spans="1:25">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -15131,7 +15260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" hidden="1" customHeight="1" spans="1:25">
+    <row r="196" customHeight="1" spans="1:25">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -15174,6 +15303,9 @@
       <c r="O196" s="1" t="s">
         <v>660</v>
       </c>
+      <c r="Q196" s="1">
+        <v>15</v>
+      </c>
       <c r="T196" s="1">
         <v>0</v>
       </c>
@@ -15193,7 +15325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:25">
+    <row r="197" hidden="1" customHeight="1" spans="1:25">
       <c r="A197" s="1">
         <v>193</v>
       </c>
@@ -15253,7 +15385,7 @@
   <autoFilter ref="A4:Y197">
     <filterColumn colId="5">
       <filters>
-        <filter val="1"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/SceneServer/tools/Xlsx/kx_skill.xlsx
+++ b/SceneServer/tools/Xlsx/kx_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14460"/>
+    <workbookView windowHeight="15630"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -3274,9 +3274,9 @@
   <dimension ref="A1:AB197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
+      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -3284,24 +3284,24 @@
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="77.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="35" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="31.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="29.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="77.625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="35" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="31.75" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="33.25" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.75" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="21.25" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="15.125" style="1" customWidth="1"/>
     <col min="24" max="24" width="41.125" style="1" customWidth="1"/>
     <col min="25" max="25" width="25.5" style="1" customWidth="1"/>
@@ -4316,7 +4316,7 @@
         <v>28</v>
       </c>
       <c r="W16" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X16" s="1">
         <v>25</v>
@@ -4381,7 +4381,7 @@
         <v>94</v>
       </c>
       <c r="W17" s="1">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="X17" s="1">
         <v>58</v>
@@ -4446,7 +4446,7 @@
         <v>97</v>
       </c>
       <c r="W18" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X18" s="1">
         <v>54</v>
@@ -4511,7 +4511,7 @@
         <v>100</v>
       </c>
       <c r="W19" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="X19" s="1">
         <v>61</v>
@@ -4576,7 +4576,7 @@
         <v>103</v>
       </c>
       <c r="W20" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="X20" s="1">
         <v>115</v>
@@ -4641,7 +4641,7 @@
         <v>106</v>
       </c>
       <c r="W21" s="1">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="X21" s="1">
         <v>70</v>
@@ -4706,7 +4706,7 @@
         <v>109</v>
       </c>
       <c r="W22" s="1">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="X22" s="1">
         <v>97</v>
@@ -4771,7 +4771,7 @@
         <v>112</v>
       </c>
       <c r="W23" s="1">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="X23" s="1">
         <v>101</v>
@@ -4836,7 +4836,7 @@
         <v>115</v>
       </c>
       <c r="W24" s="1">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="X24" s="1">
         <v>205</v>
@@ -4901,7 +4901,7 @@
         <v>118</v>
       </c>
       <c r="W25" s="1">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="X25" s="1">
         <v>180</v>
@@ -4966,7 +4966,7 @@
         <v>121</v>
       </c>
       <c r="W26" s="1">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="X26" s="1">
         <v>230</v>
@@ -5031,7 +5031,7 @@
         <v>124</v>
       </c>
       <c r="W27" s="1">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="X27" s="1">
         <v>250</v>
@@ -5096,7 +5096,7 @@
         <v>127</v>
       </c>
       <c r="W28" s="1">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="X28" s="1">
         <v>280</v>
@@ -5161,7 +5161,7 @@
         <v>130</v>
       </c>
       <c r="W29" s="1">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="X29" s="1">
         <v>320</v>
@@ -5176,7 +5176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:28">
+    <row r="30" hidden="1" customHeight="1" spans="1:28">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:28">
+    <row r="31" hidden="1" customHeight="1" spans="1:28">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:28">
+    <row r="32" hidden="1" customHeight="1" spans="1:28">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:28">
+    <row r="33" hidden="1" customHeight="1" spans="1:28">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:28">
+    <row r="34" hidden="1" customHeight="1" spans="1:28">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>9</v>
       </c>
       <c r="W35" s="1">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>161</v>
       </c>
       <c r="W36" s="1">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>167</v>
       </c>
       <c r="W38" s="1">
-        <v>1249</v>
+        <v>938</v>
       </c>
       <c r="X38" s="1">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>170</v>
       </c>
       <c r="W39" s="1">
-        <v>1316</v>
+        <v>957</v>
       </c>
       <c r="X39" s="1">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>173</v>
       </c>
       <c r="W40" s="1">
-        <v>1487</v>
+        <v>983</v>
       </c>
       <c r="X40" s="1">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>176</v>
       </c>
       <c r="W41" s="1">
-        <v>678</v>
+        <v>1039</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>182</v>
       </c>
       <c r="W43" s="1">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="X43" s="1">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>185</v>
       </c>
       <c r="W44" s="1">
-        <v>1391</v>
+        <v>1291</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>188</v>
       </c>
       <c r="W45" s="1">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="X45" s="1">
         <v>4</v>
@@ -6323,7 +6323,7 @@
         <v>191</v>
       </c>
       <c r="W46" s="1">
-        <v>499</v>
+        <v>903</v>
       </c>
       <c r="X46" s="1">
         <v>9</v>
@@ -6388,7 +6388,7 @@
         <v>194</v>
       </c>
       <c r="W47" s="1">
-        <v>1136</v>
+        <v>958</v>
       </c>
       <c r="X47" s="1">
         <v>14</v>
@@ -6453,7 +6453,7 @@
         <v>197</v>
       </c>
       <c r="W48" s="1">
-        <v>453</v>
+        <v>983</v>
       </c>
       <c r="X48" s="1">
         <v>15</v>
@@ -6518,7 +6518,7 @@
         <v>200</v>
       </c>
       <c r="W49" s="1">
-        <v>590</v>
+        <v>1013</v>
       </c>
       <c r="X49" s="1">
         <v>18</v>
@@ -6583,7 +6583,7 @@
         <v>203</v>
       </c>
       <c r="W50" s="1">
-        <v>1499</v>
+        <v>1039</v>
       </c>
       <c r="X50" s="1">
         <v>19</v>
@@ -6648,7 +6648,7 @@
         <v>206</v>
       </c>
       <c r="W51" s="1">
-        <v>726</v>
+        <v>1074</v>
       </c>
       <c r="X51" s="1">
         <v>21</v>
@@ -6713,7 +6713,7 @@
         <v>209</v>
       </c>
       <c r="W52" s="1">
-        <v>726</v>
+        <v>1099</v>
       </c>
       <c r="X52" s="1">
         <v>24</v>
@@ -6778,7 +6778,7 @@
         <v>212</v>
       </c>
       <c r="W53" s="1">
-        <v>726</v>
+        <v>1153</v>
       </c>
       <c r="X53" s="1">
         <v>25</v>
@@ -6843,7 +6843,7 @@
         <v>215</v>
       </c>
       <c r="W54" s="1">
-        <v>999</v>
+        <v>1363</v>
       </c>
       <c r="X54" s="1">
         <v>26</v>
@@ -6905,7 +6905,7 @@
         <v>10</v>
       </c>
       <c r="W55" s="1">
-        <v>969</v>
+        <v>857</v>
       </c>
       <c r="X55" s="1">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>221</v>
       </c>
       <c r="W56" s="1">
-        <v>536</v>
+        <v>892</v>
       </c>
       <c r="X56" s="1">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>224</v>
       </c>
       <c r="W57" s="1">
-        <v>1072</v>
+        <v>938</v>
       </c>
       <c r="X57" s="1">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>227</v>
       </c>
       <c r="W58" s="1">
-        <v>1143</v>
+        <v>957</v>
       </c>
       <c r="X58" s="1">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>230</v>
       </c>
       <c r="W59" s="1">
-        <v>750</v>
+        <v>983</v>
       </c>
       <c r="X59" s="1">
         <v>0</v>
@@ -7230,7 +7230,7 @@
         <v>233</v>
       </c>
       <c r="W60" s="1">
-        <v>1316</v>
+        <v>1013</v>
       </c>
       <c r="X60" s="1">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>236</v>
       </c>
       <c r="W61" s="1">
-        <v>849</v>
+        <v>1039</v>
       </c>
       <c r="X61" s="1">
         <v>0</v>
@@ -7360,7 +7360,7 @@
         <v>239</v>
       </c>
       <c r="W62" s="1">
-        <v>1435</v>
+        <v>1058</v>
       </c>
       <c r="X62" s="1">
         <v>0</v>
@@ -7425,7 +7425,7 @@
         <v>242</v>
       </c>
       <c r="W63" s="1">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="X63" s="1">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>245</v>
       </c>
       <c r="W64" s="1">
-        <v>1224</v>
+        <v>1347</v>
       </c>
       <c r="X64" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>248</v>
       </c>
       <c r="W65" s="1">
-        <v>681</v>
+        <v>909</v>
       </c>
       <c r="X65" s="1">
         <v>9</v>
@@ -7620,7 +7620,7 @@
         <v>251</v>
       </c>
       <c r="W66" s="1">
-        <v>1681</v>
+        <v>938</v>
       </c>
       <c r="X66" s="1">
         <v>12</v>
@@ -7685,7 +7685,7 @@
         <v>254</v>
       </c>
       <c r="W67" s="1">
-        <v>1499</v>
+        <v>957</v>
       </c>
       <c r="X67" s="1">
         <v>15</v>
@@ -7750,7 +7750,7 @@
         <v>257</v>
       </c>
       <c r="W68" s="1">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="X68" s="1">
         <v>17</v>
@@ -7815,7 +7815,7 @@
         <v>260</v>
       </c>
       <c r="W69" s="1">
-        <v>1618</v>
+        <v>1143</v>
       </c>
       <c r="X69" s="1">
         <v>18</v>
@@ -7880,7 +7880,7 @@
         <v>263</v>
       </c>
       <c r="W70" s="1">
-        <v>635</v>
+        <v>1187</v>
       </c>
       <c r="X70" s="1">
         <v>22</v>
@@ -7895,7 +7895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:28">
+    <row r="71" customHeight="1" spans="1:28">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>10</v>
       </c>
       <c r="W71" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="X71" s="1">
         <v>0</v>
@@ -7957,7 +7957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:28">
+    <row r="72" customHeight="1" spans="1:28">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>269</v>
       </c>
       <c r="W72" s="1">
-        <v>1653</v>
+        <v>714</v>
       </c>
       <c r="X72" s="1">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:28">
+    <row r="73" customHeight="1" spans="1:28">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>272</v>
       </c>
       <c r="W73" s="1">
-        <v>833</v>
+        <v>732</v>
       </c>
       <c r="X73" s="1">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:28">
+    <row r="74" customHeight="1" spans="1:28">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>275</v>
       </c>
       <c r="W74" s="1">
-        <v>1439</v>
+        <v>744</v>
       </c>
       <c r="X74" s="1">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:28">
+    <row r="75" customHeight="1" spans="1:28">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>278</v>
       </c>
       <c r="W75" s="1">
-        <v>1155</v>
+        <v>755</v>
       </c>
       <c r="X75" s="1">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:28">
+    <row r="76" customHeight="1" spans="1:28">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>281</v>
       </c>
       <c r="W76" s="1">
-        <v>1089</v>
+        <v>768</v>
       </c>
       <c r="X76" s="1">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:28">
+    <row r="77" customHeight="1" spans="1:28">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>182</v>
       </c>
       <c r="W77" s="1">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="X77" s="1">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:28">
+    <row r="78" customHeight="1" spans="1:28">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>185</v>
       </c>
       <c r="W78" s="1">
-        <v>1188</v>
+        <v>844</v>
       </c>
       <c r="X78" s="1">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:28">
+    <row r="79" customHeight="1" spans="1:28">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>288</v>
       </c>
       <c r="W79" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X79" s="1">
         <v>7</v>
@@ -8477,7 +8477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:28">
+    <row r="80" customHeight="1" spans="1:28">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:28">
+    <row r="81" customHeight="1" spans="1:28">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>294</v>
       </c>
       <c r="W81" s="1">
-        <v>1428</v>
+        <v>678</v>
       </c>
       <c r="X81" s="1">
         <v>16</v>
@@ -8607,7 +8607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:28">
+    <row r="82" customHeight="1" spans="1:28">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>297</v>
       </c>
       <c r="W82" s="1">
-        <v>1081</v>
+        <v>698</v>
       </c>
       <c r="X82" s="1">
         <v>21</v>
@@ -8672,7 +8672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:28">
+    <row r="83" customHeight="1" spans="1:28">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>300</v>
       </c>
       <c r="W83" s="1">
-        <v>951</v>
+        <v>732</v>
       </c>
       <c r="X83" s="1">
         <v>20</v>
@@ -8737,7 +8737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:28">
+    <row r="84" customHeight="1" spans="1:28">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>303</v>
       </c>
       <c r="W84" s="1">
-        <v>1341</v>
+        <v>758</v>
       </c>
       <c r="X84" s="1">
         <v>23</v>
@@ -8802,7 +8802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:28">
+    <row r="85" customHeight="1" spans="1:28">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>306</v>
       </c>
       <c r="W85" s="1">
-        <v>1124</v>
+        <v>788</v>
       </c>
       <c r="X85" s="1">
         <v>29</v>
@@ -8867,7 +8867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:28">
+    <row r="86" customHeight="1" spans="1:28">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>309</v>
       </c>
       <c r="W86" s="1">
-        <v>1644</v>
+        <v>732</v>
       </c>
       <c r="X86" s="1">
         <v>33</v>
@@ -9044,7 +9044,7 @@
         <v>315</v>
       </c>
       <c r="W88" s="1">
-        <v>1711</v>
+        <v>850</v>
       </c>
       <c r="X88" s="1">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>318</v>
       </c>
       <c r="W89" s="1">
-        <v>1764</v>
+        <v>950</v>
       </c>
       <c r="X89" s="1">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>321</v>
       </c>
       <c r="W90" s="1">
-        <v>1814</v>
+        <v>1000</v>
       </c>
       <c r="X90" s="1">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>324</v>
       </c>
       <c r="W91" s="1">
-        <v>1862</v>
+        <v>1100</v>
       </c>
       <c r="X91" s="1">
         <v>0</v>
@@ -9304,7 +9304,7 @@
         <v>327</v>
       </c>
       <c r="W92" s="1">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="X92" s="1">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>330</v>
       </c>
       <c r="W93" s="1">
-        <v>1953</v>
+        <v>900</v>
       </c>
       <c r="X93" s="1">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>333</v>
       </c>
       <c r="W94" s="1">
-        <v>1966</v>
+        <v>1000</v>
       </c>
       <c r="X94" s="1">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>336</v>
       </c>
       <c r="W95" s="1">
-        <v>2037</v>
+        <v>1100</v>
       </c>
       <c r="X95" s="1">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>339</v>
       </c>
       <c r="W96" s="1">
-        <v>2076</v>
+        <v>1200</v>
       </c>
       <c r="X96" s="1">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>342</v>
       </c>
       <c r="W97" s="1">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="X97" s="1">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:28">
+    <row r="98" hidden="1" customHeight="1" spans="1:28">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:28">
+    <row r="99" hidden="1" customHeight="1" spans="1:28">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:28">
+    <row r="100" hidden="1" customHeight="1" spans="1:28">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:28">
+    <row r="101" hidden="1" customHeight="1" spans="1:28">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:28">
+    <row r="102" hidden="1" customHeight="1" spans="1:28">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:28">
+    <row r="103" hidden="1" customHeight="1" spans="1:28">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:28">
+    <row r="104" hidden="1" customHeight="1" spans="1:28">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:28">
+    <row r="105" hidden="1" customHeight="1" spans="1:28">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:28">
+    <row r="106" hidden="1" customHeight="1" spans="1:28">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>385</v>
       </c>
       <c r="W108" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="X108" s="1">
         <v>45</v>
@@ -10487,7 +10487,7 @@
         <v>388</v>
       </c>
       <c r="W109" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="X109" s="1">
         <v>64</v>
@@ -10502,7 +10502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" ht="14.25" hidden="1" spans="1:28">
+    <row r="110" hidden="1" spans="1:28">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>391</v>
       </c>
       <c r="W110" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="X110" s="1">
         <v>87</v>
@@ -10617,7 +10617,7 @@
         <v>394</v>
       </c>
       <c r="W111" s="1">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="X111" s="1">
         <v>143</v>
@@ -10682,7 +10682,7 @@
         <v>397</v>
       </c>
       <c r="W112" s="1">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="X112" s="1">
         <v>105</v>
@@ -10747,7 +10747,7 @@
         <v>400</v>
       </c>
       <c r="W113" s="1">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="X113" s="1">
         <v>154</v>
@@ -10812,7 +10812,7 @@
         <v>403</v>
       </c>
       <c r="W114" s="1">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="X114" s="1">
         <v>244</v>
@@ -10877,7 +10877,7 @@
         <v>406</v>
       </c>
       <c r="W115" s="1">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="X115" s="1">
         <v>220</v>
@@ -10942,7 +10942,7 @@
         <v>409</v>
       </c>
       <c r="W116" s="1">
-        <v>670</v>
+        <v>900</v>
       </c>
       <c r="X116" s="1">
         <v>289</v>
@@ -11007,7 +11007,7 @@
         <v>412</v>
       </c>
       <c r="W117" s="1">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="X117" s="1">
         <v>337</v>
@@ -11072,7 +11072,7 @@
         <v>415</v>
       </c>
       <c r="W118" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="X118" s="1">
         <v>374</v>
@@ -11137,7 +11137,7 @@
         <v>418</v>
       </c>
       <c r="W119" s="1">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="X119" s="1">
         <v>298</v>
@@ -11152,7 +11152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:28">
+    <row r="120" hidden="1" customHeight="1" spans="1:28">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>423</v>
       </c>
       <c r="W120" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X120" s="1">
         <v>76</v>
@@ -11226,7 +11226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:28">
+    <row r="121" hidden="1" customHeight="1" spans="1:28">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>427</v>
       </c>
       <c r="W121" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X121" s="1">
         <v>144</v>
@@ -11300,7 +11300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:28">
+    <row r="122" hidden="1" customHeight="1" spans="1:28">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>430</v>
       </c>
       <c r="W122" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X122" s="1">
         <v>170</v>
@@ -11374,7 +11374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:28">
+    <row r="123" hidden="1" customHeight="1" spans="1:28">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>433</v>
       </c>
       <c r="W123" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X123" s="1">
         <v>260</v>
@@ -11448,7 +11448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:28">
+    <row r="124" hidden="1" customHeight="1" spans="1:28">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>436</v>
       </c>
       <c r="W124" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X124" s="1">
         <v>300</v>
@@ -11525,7 +11525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:28">
+    <row r="125" customHeight="1" spans="1:28">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:28">
+    <row r="126" customHeight="1" spans="1:28">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:28">
+    <row r="133" hidden="1" customHeight="1" spans="1:28">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:28">
+    <row r="137" hidden="1" customHeight="1" spans="1:28">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:28">
+    <row r="139" hidden="1" customHeight="1" spans="1:28">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:28">
+    <row r="140" hidden="1" customHeight="1" spans="1:28">
       <c r="A140" s="1">
         <v>136</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:28">
+    <row r="143" hidden="1" customHeight="1" spans="1:28">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:28">
+    <row r="149" customHeight="1" spans="1:28">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:28">
+    <row r="150" customHeight="1" spans="1:28">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:28">
+    <row r="151" customHeight="1" spans="1:28">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:28">
+    <row r="153" hidden="1" customHeight="1" spans="1:28">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:28">
+    <row r="154" hidden="1" customHeight="1" spans="1:28">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:28">
+    <row r="159" hidden="1" customHeight="1" spans="1:28">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:28">
+    <row r="164" customHeight="1" spans="1:28">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:28">
+    <row r="169" hidden="1" customHeight="1" spans="1:28">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:28">
+    <row r="171" hidden="1" customHeight="1" spans="1:28">
       <c r="A171" s="1">
         <v>167</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:28">
+    <row r="172" hidden="1" customHeight="1" spans="1:28">
       <c r="A172" s="1">
         <v>168</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:28">
+    <row r="175" hidden="1" customHeight="1" spans="1:28">
       <c r="A175" s="1">
         <v>171</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:28">
+    <row r="180" hidden="1" customHeight="1" spans="1:28">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:28">
+    <row r="182" hidden="1" customHeight="1" spans="1:28">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:28">
+    <row r="183" hidden="1" customHeight="1" spans="1:28">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:28">
+    <row r="184" hidden="1" customHeight="1" spans="1:28">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:28">
+    <row r="185" hidden="1" customHeight="1" spans="1:28">
       <c r="A185" s="1">
         <v>181</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:28">
+    <row r="186" hidden="1" customHeight="1" spans="1:28">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:28">
+    <row r="189" hidden="1" customHeight="1" spans="1:28">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:28">
+    <row r="190" hidden="1" customHeight="1" spans="1:28">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:28">
+    <row r="191" hidden="1" customHeight="1" spans="1:28">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:28">
+    <row r="192" hidden="1" customHeight="1" spans="1:28">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:28">
+    <row r="193" hidden="1" customHeight="1" spans="1:28">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:28">
+    <row r="194" hidden="1" customHeight="1" spans="1:28">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:28">
+    <row r="196" hidden="1" customHeight="1" spans="1:28">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -15834,10 +15834,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:AB197">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="OneHand"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/SceneServer/tools/Xlsx/kx_skill.xlsx
+++ b/SceneServer/tools/Xlsx/kx_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13590"/>
+    <workbookView windowHeight="14745"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -871,7 +871,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="760">
   <si>
     <t>idx</t>
   </si>
@@ -3114,7 +3114,7 @@
     <t>变身技能</t>
   </si>
   <si>
-    <t xml:space="preserve">Transformation </t>
+    <t>Transformation</t>
   </si>
   <si>
     <t>死亡领域</t>
@@ -4099,13 +4099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AB197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q141" sqref="Q141"/>
+      <selection pane="bottomLeft" activeCell="Q195" sqref="Q195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -4386,7 +4386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:28">
+    <row r="5" customHeight="1" spans="1:28">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:28">
+    <row r="6" customHeight="1" spans="1:28">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:28">
+    <row r="7" customHeight="1" spans="1:28">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:28">
+    <row r="8" customHeight="1" spans="1:28">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:28">
+    <row r="9" customHeight="1" spans="1:28">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:28">
+    <row r="10" customHeight="1" spans="1:28">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:28">
+    <row r="11" customHeight="1" spans="1:28">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:28">
+    <row r="12" customHeight="1" spans="1:28">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:28">
+    <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:28">
+    <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:28">
+    <row r="15" customHeight="1" spans="1:28">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:28">
+    <row r="35" customHeight="1" spans="1:28">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:28">
+    <row r="36" customHeight="1" spans="1:28">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:28">
+    <row r="37" customHeight="1" spans="1:28">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:28">
+    <row r="38" customHeight="1" spans="1:28">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:28">
+    <row r="39" customHeight="1" spans="1:28">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:28">
+    <row r="40" customHeight="1" spans="1:28">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:28">
+    <row r="41" customHeight="1" spans="1:28">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:28">
+    <row r="42" customHeight="1" spans="1:28">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:28">
+    <row r="43" customHeight="1" spans="1:28">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:28">
+    <row r="44" customHeight="1" spans="1:28">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:28">
+    <row r="45" customHeight="1" spans="1:28">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:28">
+    <row r="46" customHeight="1" spans="1:28">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:28">
+    <row r="47" customHeight="1" spans="1:28">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:28">
+    <row r="48" customHeight="1" spans="1:28">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:28">
+    <row r="49" customHeight="1" spans="1:28">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:28">
+    <row r="50" customHeight="1" spans="1:28">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:28">
+    <row r="51" customHeight="1" spans="1:28">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:28">
+    <row r="52" customHeight="1" spans="1:28">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:28">
+    <row r="53" customHeight="1" spans="1:28">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:28">
+    <row r="54" customHeight="1" spans="1:28">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:28">
+    <row r="55" customHeight="1" spans="1:28">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:28">
+    <row r="56" customHeight="1" spans="1:28">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:28">
+    <row r="57" customHeight="1" spans="1:28">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:28">
+    <row r="58" customHeight="1" spans="1:28">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:28">
+    <row r="59" customHeight="1" spans="1:28">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:28">
+    <row r="60" customHeight="1" spans="1:28">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:28">
+    <row r="61" customHeight="1" spans="1:28">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:28">
+    <row r="62" customHeight="1" spans="1:28">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:28">
+    <row r="63" customHeight="1" spans="1:28">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:28">
+    <row r="64" customHeight="1" spans="1:28">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:28">
+    <row r="65" customHeight="1" spans="1:28">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:28">
+    <row r="66" customHeight="1" spans="1:28">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:28">
+    <row r="67" customHeight="1" spans="1:28">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:28">
+    <row r="68" customHeight="1" spans="1:28">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:28">
+    <row r="69" customHeight="1" spans="1:28">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:28">
+    <row r="70" customHeight="1" spans="1:28">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:28">
+    <row r="71" customHeight="1" spans="1:28">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:28">
+    <row r="72" customHeight="1" spans="1:28">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:28">
+    <row r="73" customHeight="1" spans="1:28">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:28">
+    <row r="74" customHeight="1" spans="1:28">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:28">
+    <row r="75" customHeight="1" spans="1:28">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:28">
+    <row r="76" customHeight="1" spans="1:28">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:28">
+    <row r="77" customHeight="1" spans="1:28">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:28">
+    <row r="78" customHeight="1" spans="1:28">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:28">
+    <row r="79" customHeight="1" spans="1:28">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:28">
+    <row r="80" customHeight="1" spans="1:28">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:28">
+    <row r="81" customHeight="1" spans="1:28">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:28">
+    <row r="82" customHeight="1" spans="1:28">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:28">
+    <row r="83" customHeight="1" spans="1:28">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:28">
+    <row r="84" customHeight="1" spans="1:28">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:28">
+    <row r="85" customHeight="1" spans="1:28">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:28">
+    <row r="86" customHeight="1" spans="1:28">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:28">
+    <row r="87" customHeight="1" spans="1:28">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:28">
+    <row r="88" customHeight="1" spans="1:28">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:28">
+    <row r="89" customHeight="1" spans="1:28">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:28">
+    <row r="90" customHeight="1" spans="1:28">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:28">
+    <row r="91" customHeight="1" spans="1:28">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:28">
+    <row r="92" customHeight="1" spans="1:28">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:28">
+    <row r="93" customHeight="1" spans="1:28">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:28">
+    <row r="94" customHeight="1" spans="1:28">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:28">
+    <row r="95" customHeight="1" spans="1:28">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:28">
+    <row r="96" customHeight="1" spans="1:28">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:28">
+    <row r="97" customHeight="1" spans="1:28">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:28">
+    <row r="98" customHeight="1" spans="1:28">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:28">
+    <row r="99" customHeight="1" spans="1:28">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:28">
+    <row r="100" customHeight="1" spans="1:28">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:28">
+    <row r="101" customHeight="1" spans="1:28">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:28">
+    <row r="102" customHeight="1" spans="1:28">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:28">
+    <row r="103" customHeight="1" spans="1:28">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:28">
+    <row r="104" customHeight="1" spans="1:28">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:28">
+    <row r="105" customHeight="1" spans="1:28">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:28">
+    <row r="106" customHeight="1" spans="1:28">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:28">
+    <row r="107" customHeight="1" spans="1:28">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:28">
+    <row r="108" customHeight="1" spans="1:28">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:28">
+    <row r="109" customHeight="1" spans="1:28">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" ht="14.25" hidden="1" spans="1:28">
+    <row r="110" ht="14.25" spans="1:28">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:28">
+    <row r="111" customHeight="1" spans="1:28">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:28">
+    <row r="112" customHeight="1" spans="1:28">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:28">
+    <row r="113" customHeight="1" spans="1:28">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:28">
+    <row r="114" customHeight="1" spans="1:28">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:28">
+    <row r="115" customHeight="1" spans="1:28">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:28">
+    <row r="116" customHeight="1" spans="1:28">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:28">
+    <row r="117" customHeight="1" spans="1:28">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:28">
+    <row r="118" customHeight="1" spans="1:28">
       <c r="A118" s="1">
         <v>114</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" hidden="1" customHeight="1" spans="1:28">
+    <row r="119" customHeight="1" spans="1:28">
       <c r="A119" s="1">
         <v>115</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:28">
+    <row r="120" customHeight="1" spans="1:28">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:28">
+    <row r="121" customHeight="1" spans="1:28">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:28">
+    <row r="122" customHeight="1" spans="1:28">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:28">
+    <row r="123" customHeight="1" spans="1:28">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:28">
+    <row r="124" customHeight="1" spans="1:28">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:28">
+    <row r="125" customHeight="1" spans="1:28">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:28">
+    <row r="126" customHeight="1" spans="1:28">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:28">
+    <row r="127" customHeight="1" spans="1:28">
       <c r="A127" s="1">
         <v>123</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:28">
+    <row r="128" customHeight="1" spans="1:28">
       <c r="A128" s="1">
         <v>124</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:28">
+    <row r="129" customHeight="1" spans="1:28">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:28">
+    <row r="131" customHeight="1" spans="1:28">
       <c r="A131" s="1">
         <v>127</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:28">
+    <row r="132" customHeight="1" spans="1:28">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:28">
+    <row r="133" customHeight="1" spans="1:28">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:28">
+    <row r="134" customHeight="1" spans="1:28">
       <c r="A134" s="1">
         <v>130</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:28">
+    <row r="135" customHeight="1" spans="1:28">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:28">
+    <row r="136" customHeight="1" spans="1:28">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:28">
+    <row r="137" customHeight="1" spans="1:28">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:28">
+    <row r="138" customHeight="1" spans="1:28">
       <c r="A138" s="1">
         <v>134</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:28">
+    <row r="139" customHeight="1" spans="1:28">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -13500,7 +13500,6 @@
       <c r="P141" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Q141" s="1"/>
       <c r="R141" s="1" t="s">
         <v>532</v>
       </c>
@@ -13585,7 +13584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:28">
+    <row r="143" customHeight="1" spans="1:28">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:28">
+    <row r="144" customHeight="1" spans="1:28">
       <c r="A144" s="1">
         <v>140</v>
       </c>
@@ -13721,7 +13720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:28">
+    <row r="145" customHeight="1" spans="1:28">
       <c r="A145" s="1">
         <v>141</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:28">
+    <row r="146" customHeight="1" spans="1:28">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -13851,7 +13850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:28">
+    <row r="147" customHeight="1" spans="1:28">
       <c r="A147" s="1">
         <v>143</v>
       </c>
@@ -13916,7 +13915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:28">
+    <row r="148" customHeight="1" spans="1:28">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:28">
+    <row r="149" customHeight="1" spans="1:28">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:28">
+    <row r="150" customHeight="1" spans="1:28">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -14108,7 +14107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:28">
+    <row r="151" customHeight="1" spans="1:28">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:28">
+    <row r="152" customHeight="1" spans="1:28">
       <c r="A152" s="1">
         <v>148</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:28">
+    <row r="153" customHeight="1" spans="1:28">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -14306,7 +14305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:28">
+    <row r="154" customHeight="1" spans="1:28">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:28">
+    <row r="158" customHeight="1" spans="1:28">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:28">
+    <row r="159" customHeight="1" spans="1:28">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:28">
+    <row r="160" customHeight="1" spans="1:28">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:28">
+    <row r="161" customHeight="1" spans="1:28">
       <c r="A161" s="1">
         <v>157</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:28">
+    <row r="162" customHeight="1" spans="1:28">
       <c r="A162" s="1">
         <v>158</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:28">
+    <row r="163" customHeight="1" spans="1:28">
       <c r="A163" s="1">
         <v>159</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:28">
+    <row r="164" customHeight="1" spans="1:28">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -15027,7 +15026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:28">
+    <row r="165" customHeight="1" spans="1:28">
       <c r="A165" s="1">
         <v>161</v>
       </c>
@@ -15086,7 +15085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:28">
+    <row r="166" customHeight="1" spans="1:28">
       <c r="A166" s="1">
         <v>162</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" hidden="1" customHeight="1" spans="1:28">
+    <row r="167" customHeight="1" spans="1:28">
       <c r="A167" s="1">
         <v>163</v>
       </c>
@@ -15201,7 +15200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" hidden="1" customHeight="1" spans="1:28">
+    <row r="168" customHeight="1" spans="1:28">
       <c r="A168" s="1">
         <v>164</v>
       </c>
@@ -15257,7 +15256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:28">
+    <row r="169" customHeight="1" spans="1:28">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -15375,7 +15374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" hidden="1" customHeight="1" spans="1:28">
+    <row r="171" customHeight="1" spans="1:28">
       <c r="A171" s="1">
         <v>167</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" hidden="1" customHeight="1" spans="1:28">
+    <row r="173" customHeight="1" spans="1:28">
       <c r="A173" s="1">
         <v>169</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" hidden="1" customHeight="1" spans="1:28">
+    <row r="174" customHeight="1" spans="1:28">
       <c r="A174" s="1">
         <v>170</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" hidden="1" customHeight="1" spans="1:28">
+    <row r="175" customHeight="1" spans="1:28">
       <c r="A175" s="1">
         <v>171</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" hidden="1" customHeight="1" spans="1:28">
+    <row r="176" customHeight="1" spans="1:28">
       <c r="A176" s="1">
         <v>172</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" hidden="1" customHeight="1" spans="1:28">
+    <row r="177" customHeight="1" spans="1:28">
       <c r="A177" s="1">
         <v>173</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" hidden="1" customHeight="1" spans="1:28">
+    <row r="178" customHeight="1" spans="1:28">
       <c r="A178" s="1">
         <v>174</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" hidden="1" customHeight="1" spans="1:28">
+    <row r="180" customHeight="1" spans="1:28">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" hidden="1" customHeight="1" spans="1:28">
+    <row r="181" customHeight="1" spans="1:28">
       <c r="A181" s="1">
         <v>177</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" hidden="1" customHeight="1" spans="1:28">
+    <row r="182" customHeight="1" spans="1:28">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" hidden="1" customHeight="1" spans="1:28">
+    <row r="183" customHeight="1" spans="1:28">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" hidden="1" customHeight="1" spans="1:28">
+    <row r="184" customHeight="1" spans="1:28">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" hidden="1" customHeight="1" spans="1:28">
+    <row r="185" customHeight="1" spans="1:28">
       <c r="A185" s="1">
         <v>181</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" hidden="1" customHeight="1" spans="1:28">
+    <row r="186" customHeight="1" spans="1:28">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" hidden="1" customHeight="1" spans="1:28">
+    <row r="187" customHeight="1" spans="1:28">
       <c r="A187" s="1">
         <v>183</v>
       </c>
@@ -16432,7 +16431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" hidden="1" customHeight="1" spans="1:28">
+    <row r="188" customHeight="1" spans="1:28">
       <c r="A188" s="1">
         <v>184</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" hidden="1" customHeight="1" spans="1:28">
+    <row r="189" customHeight="1" spans="1:28">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -16547,7 +16546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" hidden="1" customHeight="1" spans="1:28">
+    <row r="190" customHeight="1" spans="1:28">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -16606,7 +16605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" hidden="1" customHeight="1" spans="1:28">
+    <row r="191" customHeight="1" spans="1:28">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" hidden="1" customHeight="1" spans="1:28">
+    <row r="192" customHeight="1" spans="1:28">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -16718,7 +16717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" hidden="1" customHeight="1" spans="1:28">
+    <row r="193" customHeight="1" spans="1:28">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" hidden="1" customHeight="1" spans="1:28">
+    <row r="194" customHeight="1" spans="1:28">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -16805,11 +16804,17 @@
       <c r="O194" s="1" t="s">
         <v>746</v>
       </c>
+      <c r="P194" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="W194" s="1">
         <v>0</v>
       </c>
       <c r="X194" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y194" s="1">
         <v>0</v>
@@ -16821,7 +16826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" hidden="1" customHeight="1" spans="1:28">
+    <row r="195" customHeight="1" spans="1:28">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -16868,7 +16873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" hidden="1" customHeight="1" spans="1:28">
+    <row r="196" customHeight="1" spans="1:28">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -16927,7 +16932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" hidden="1" customHeight="1" spans="1:28">
+    <row r="197" customHeight="1" spans="1:28">
       <c r="A197" s="1">
         <v>193</v>
       </c>
@@ -16997,11 +17002,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:AB197">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Red"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
